--- a/biology/Zoologie/Colubridae/Colubridae.xlsx
+++ b/biology/Zoologie/Colubridae/Colubridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colubridés
 Les Colubridés, nom scientifique Colubridae, sont une famille de serpents. Elle a été créée et répertoriée par Nicolaus Michael Oppel en 1811.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents à l'exception de l'Antarctique.
 </t>
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les taxons Dipsadinae, Elapinae, Natricinae et Pseudoxenodontinae étaient considérés par le passé comme sous-familles des Colubridés, avant d'être élevés au rang de famille.
-La base actuelle de la classification des Colubridés est celle de Pyron et al., 2010[1] et de Pyron et al., 2013[2].
+La base actuelle de la classification des Colubridés est celle de Pyron et al., 2010 et de Pyron et al., 2013.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (30 décembre 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (30 décembre 2015) :
 Calamariinae Bonaparte, 1838
 genre Calamaria Boie, 1827
 genre Calamorhabdium Boettger, 1898
@@ -731,9 +749,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette famille, Colubridae, vient du latin coluber, colubra, désignant les couleuvres (respectivement mâles et femelles) et du suffixe -dae désignant un rang de famille[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette famille, Colubridae, vient du latin coluber, colubra, désignant les couleuvres (respectivement mâles et femelles) et du suffixe -dae désignant un rang de famille.
 </t>
         </is>
       </c>
@@ -762,7 +782,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oppel, 1811 : Die Ordnungen, Familien und Gattungen der Reptilien, als Prodrom einer Naturgeschichte derselben. J. Lindauer, München (texte intégral)</t>
         </is>
